--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="123">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T15:10:33+00:00</t>
+    <t>2022-05-26T16:44:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,16 +260,25 @@
 </t>
   </si>
   <si>
-    <t>Business identifier for this medication</t>
+    <t>IDMP PhPID Level 1</t>
   </si>
   <si>
     <t>IDMPPhPModel.identifier.l2_identifier</t>
   </si>
   <si>
+    <t>IDMP PhPID Level 2</t>
+  </si>
+  <si>
     <t>IDMPPhPModel.identifier.l3_identifier</t>
   </si>
   <si>
+    <t>IDMP PhPID Level 3</t>
+  </si>
+  <si>
     <t>IDMPPhPModel.identifier.l4_identifier</t>
+  </si>
+  <si>
+    <t>IDMP PhPID Level 4</t>
   </si>
   <si>
     <t>0x073AF2E5B92AE19E8B67635AFFB3D6CA</t>
@@ -371,7 +380,13 @@
     <t>unit of presentation is strength is by presentation</t>
   </si>
   <si>
-    <t>tablet</t>
+    <t>10210000 capsule, hard</t>
+  </si>
+  <si>
+    <t>IDMPPhPModel.ingredient.doseForm</t>
+  </si>
+  <si>
+    <t>Dose Form</t>
   </si>
 </sst>
 </file>
@@ -684,7 +699,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1169,10 +1184,10 @@
         <v>80</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1243,7 +1258,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1269,10 +1284,10 @@
         <v>80</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1323,7 +1338,7 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>72</v>
@@ -1343,7 +1358,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1369,10 +1384,10 @@
         <v>80</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1387,7 +1402,7 @@
         <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>71</v>
@@ -1423,7 +1438,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1443,7 +1458,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1469,10 +1484,10 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1523,7 +1538,7 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -1543,7 +1558,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1566,13 +1581,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1587,43 +1602,43 @@
         <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="T9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -1643,7 +1658,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1669,10 +1684,10 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1723,7 +1738,7 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -1743,7 +1758,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1769,10 +1784,10 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1823,7 +1838,7 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -1843,7 +1858,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1866,13 +1881,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1887,43 +1902,43 @@
         <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="T12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="T12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -1943,7 +1958,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1966,13 +1981,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2023,7 +2038,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2043,7 +2058,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2066,13 +2081,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2099,11 +2114,11 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2121,7 +2136,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -2141,7 +2156,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2164,13 +2179,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2197,11 +2212,11 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2219,7 +2234,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -2239,7 +2254,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2262,13 +2277,13 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2295,11 +2310,11 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -2317,7 +2332,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -2337,7 +2352,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2360,13 +2375,13 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2381,44 +2396,44 @@
         <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="T17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>114</v>
-      </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
       </c>
@@ -2432,6 +2447,206 @@
         <v>71</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="125">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-26T16:44:55+00:00</t>
+    <t>2022-05-29T06:24:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -306,7 +306,7 @@
     <t>IDMPPhPModel.ingredient.strength</t>
   </si>
   <si>
-    <t>strength of the substance</t>
+    <t>Authorized strength of the substance</t>
   </si>
   <si>
     <t>IDMPPhPModel.ingredient.strength.strengthValue</t>
@@ -347,6 +347,9 @@
     <t>basis of substance strength</t>
   </si>
   <si>
+    <t>not needed from countries, will be looked up by substance</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -359,6 +362,9 @@
     <t>oral-solid | injectable</t>
   </si>
   <si>
+    <t>not needed from countries, will be looked up by dose form</t>
+  </si>
+  <si>
     <t>http://medigree.net/eu/fhir/medigree/ValueSet/Pattern-vs</t>
   </si>
   <si>
@@ -386,7 +392,7 @@
     <t>IDMPPhPModel.ingredient.doseForm</t>
   </si>
   <si>
-    <t>Dose Form</t>
+    <t>Authorized Dose Form</t>
   </si>
 </sst>
 </file>
@@ -699,7 +705,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2089,7 +2095,9 @@
       <c r="L14" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>109</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>71</v>
@@ -2114,11 +2122,11 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2156,7 +2164,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2182,12 +2190,14 @@
         <v>106</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>71</v>
@@ -2212,11 +2222,11 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2234,7 +2244,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -2254,7 +2264,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2280,12 +2290,14 @@
         <v>106</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>71</v>
@@ -2310,29 +2322,29 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -2352,7 +2364,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2360,7 +2372,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>79</v>
@@ -2378,12 +2390,14 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>114</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>71</v>
@@ -2396,7 +2410,7 @@
         <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>71</v>
@@ -2432,10 +2446,10 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -2452,7 +2466,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2460,7 +2474,7 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>79</v>
@@ -2478,10 +2492,10 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2496,7 +2510,7 @@
         <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>71</v>
@@ -2532,10 +2546,10 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2547,106 +2561,6 @@
         <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="F19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="R19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T06:24:54+00:00</t>
+    <t>2022-05-29T08:18:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:18:51+00:00</t>
+    <t>2022-05-29T08:21:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T08:21:05+00:00</t>
+    <t>2022-05-31T09:58:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T09:58:25+00:00</t>
+    <t>2022-05-31T10:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:10:02+00:00</t>
+    <t>2022-05-31T22:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T22:14:36+00:00</t>
+    <t>2022-06-01T13:57:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="144">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:57:06+00:00</t>
+    <t>2022-06-01T15:56:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Element</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -237,7 +237,74 @@
     <t>*</t>
   </si>
   <si>
-    <t>Base</t>
+    <t>Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>IDMPPhPModel.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>IDMPPhPModel.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>IDMPPhPModel.identifier</t>
@@ -251,9 +318,6 @@
   </si>
   <si>
     <t>IDMPPhPModel.identifier.l1_identifier</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
@@ -705,7 +769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -716,7 +780,7 @@
   <cols>
     <col min="1" max="1" width="58.7421875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -741,7 +805,7 @@
     <col min="25" max="25" width="55.62109375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.7421875" customWidth="true" bestFit="true" hidden="true"/>
@@ -953,18 +1017,18 @@
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -975,7 +1039,7 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>71</v>
@@ -987,13 +1051,13 @@
         <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1044,13 +1108,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1059,23 +1123,23 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>71</v>
@@ -1087,15 +1151,17 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="M4" s="2"/>
+        <v>88</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
         <v>71</v>
@@ -1132,39 +1198,39 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1175,7 +1241,7 @@
         <v>72</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>71</v>
@@ -1187,13 +1253,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1244,13 +1310,13 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>71</v>
@@ -1264,7 +1330,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1287,13 +1353,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1344,7 +1410,7 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>72</v>
@@ -1364,7 +1430,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1387,13 +1453,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1408,7 +1474,7 @@
         <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
         <v>71</v>
@@ -1444,7 +1510,7 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
@@ -1464,7 +1530,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1472,10 +1538,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1487,13 +1553,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1544,13 +1610,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1564,7 +1630,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1572,7 +1638,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>79</v>
@@ -1587,13 +1653,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1608,7 +1674,7 @@
         <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>71</v>
@@ -1644,10 +1710,10 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -1664,7 +1730,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1675,7 +1741,7 @@
         <v>79</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>71</v>
@@ -1687,13 +1753,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1744,13 +1810,13 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>71</v>
@@ -1764,7 +1830,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1787,13 +1853,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1808,7 +1874,7 @@
         <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>71</v>
@@ -1844,7 +1910,7 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>79</v>
@@ -1864,7 +1930,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1887,13 +1953,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1908,7 +1974,7 @@
         <v>71</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>71</v>
@@ -1944,7 +2010,7 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -1964,7 +2030,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1987,13 +2053,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2044,7 +2110,7 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2064,7 +2130,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2087,17 +2153,15 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>71</v>
@@ -2110,7 +2174,7 @@
         <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>71</v>
@@ -2122,11 +2186,13 @@
         <v>71</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X14" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y14" t="s" s="2">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>71</v>
@@ -2144,7 +2210,7 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -2164,7 +2230,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2187,17 +2253,15 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>71</v>
@@ -2222,11 +2286,13 @@
         <v>71</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="X15" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="Y15" t="s" s="2">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>71</v>
@@ -2244,7 +2310,7 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -2264,7 +2330,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2287,16 +2353,16 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2322,11 +2388,11 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -2344,7 +2410,7 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -2364,7 +2430,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2372,7 +2438,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>79</v>
@@ -2387,16 +2453,16 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2410,7 +2476,7 @@
         <v>71</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>71</v>
@@ -2422,13 +2488,11 @@
         <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>71</v>
@@ -2446,10 +2510,10 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -2466,7 +2530,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2489,15 +2553,17 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>136</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>133</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>71</v>
@@ -2510,7 +2576,7 @@
         <v>71</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>71</v>
@@ -2522,13 +2588,11 @@
         <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>71</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>71</v>
@@ -2546,7 +2610,7 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -2561,6 +2625,208 @@
         <v>71</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
         <v>71</v>
       </c>
     </row>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:56:45+00:00</t>
+    <t>2022-06-01T15:57:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T15:57:53+00:00</t>
+    <t>2022-06-06T08:53:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T08:53:46+00:00</t>
+    <t>2022-06-06T12:38:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T12:38:00+00:00</t>
+    <t>2022-06-07T12:41:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:41:09+00:00</t>
+    <t>2022-06-07T12:51:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-07T12:51:30+00:00</t>
+    <t>2022-06-08T14:01:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-08T14:01:48+00:00</t>
+    <t>2022-06-10T09:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-10T09:36:45+00:00</t>
+    <t>2022-06-13T16:57:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-13T16:57:46+00:00</t>
+    <t>2022-06-28T09:17:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/StructureDefinition/IDMPPhPModel</t>
+    <t>http://medigree.net/eu/fhir/mpd/StructureDefinition/IDMPPhPModel</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T09:17:31+00:00</t>
+    <t>2022-06-28T12:38:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -417,7 +417,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/ValueSet/BoSS-vs</t>
+    <t>http://medigree.net/eu/fhir/mpd/ValueSet/BoSS-vs</t>
   </si>
   <si>
     <t>IDMPPhPModel.ingredient.strength.pattern</t>
@@ -429,7 +429,7 @@
     <t>not needed from countries, will be looked up by dose form</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/ValueSet/Pattern-vs</t>
+    <t>http://medigree.net/eu/fhir/mpd/ValueSet/Pattern-vs</t>
   </si>
   <si>
     <t>IDMPPhPModel.ingredient.strength.concentration_presentation</t>
@@ -438,7 +438,7 @@
     <t>concentration | presentation</t>
   </si>
   <si>
-    <t>http://medigree.net/eu/fhir/medigree/ValueSet/ConcPres-vs</t>
+    <t>http://medigree.net/eu/fhir/mpd/ValueSet/ConcPres-vs</t>
   </si>
   <si>
     <t>IDMPPhPModel.ingredient.strength.unit_of_presentation</t>
@@ -802,7 +802,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.62109375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="50.9765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-28T12:38:26+00:00</t>
+    <t>2022-09-30T13:06:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -779,41 +779,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="58.7421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="68.71484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.9765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="58.7421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-30T13:06:24+00:00</t>
+    <t>2022-10-08T08:36:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,10 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -1020,15 +1016,15 @@
         <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1039,25 +1035,25 @@
         <v>72</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1108,13 +1104,13 @@
         <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>71</v>
@@ -1123,16 +1119,16 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1151,16 +1147,16 @@
         <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1198,19 +1194,19 @@
         <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>72</v>
@@ -1222,15 +1218,15 @@
         <v>71</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1253,13 +1249,13 @@
         <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>97</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1310,7 +1306,7 @@
         <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>72</v>
@@ -1330,7 +1326,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1341,7 +1337,7 @@
         <v>72</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>71</v>
@@ -1353,13 +1349,13 @@
         <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>100</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1410,13 +1406,13 @@
         <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>71</v>
@@ -1430,7 +1426,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1441,7 +1437,7 @@
         <v>72</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>71</v>
@@ -1453,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1510,13 +1506,13 @@
         <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>71</v>
@@ -1530,7 +1526,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1541,7 +1537,7 @@
         <v>72</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>71</v>
@@ -1553,13 +1549,13 @@
         <v>71</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1610,13 +1606,13 @@
         <v>71</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>71</v>
@@ -1630,7 +1626,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1641,7 +1637,7 @@
         <v>72</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>71</v>
@@ -1653,13 +1649,13 @@
         <v>71</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1674,7 +1670,7 @@
         <v>71</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T9" t="s" s="2">
         <v>71</v>
@@ -1710,13 +1706,13 @@
         <v>71</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>71</v>
@@ -1730,7 +1726,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1738,7 +1734,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>73</v>
@@ -1753,13 +1749,13 @@
         <v>71</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1810,10 +1806,10 @@
         <v>71</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1830,7 +1826,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1838,10 +1834,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>71</v>
@@ -1853,13 +1849,13 @@
         <v>71</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1874,7 +1870,7 @@
         <v>71</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>71</v>
@@ -1910,13 +1906,13 @@
         <v>71</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>71</v>
@@ -1930,7 +1926,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1938,10 +1934,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>71</v>
@@ -1953,13 +1949,13 @@
         <v>71</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2010,13 +2006,13 @@
         <v>71</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>71</v>
@@ -2030,7 +2026,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2038,10 +2034,10 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>71</v>
@@ -2053,13 +2049,13 @@
         <v>71</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2110,13 +2106,13 @@
         <v>71</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>71</v>
@@ -2130,7 +2126,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2138,10 +2134,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>71</v>
@@ -2153,13 +2149,13 @@
         <v>71</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K14" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="L14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2174,7 +2170,7 @@
         <v>71</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>71</v>
@@ -2210,13 +2206,13 @@
         <v>71</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>71</v>
@@ -2230,7 +2226,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2238,10 +2234,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>71</v>
@@ -2253,13 +2249,13 @@
         <v>71</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2310,13 +2306,13 @@
         <v>71</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>71</v>
@@ -2330,7 +2326,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2338,10 +2334,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>71</v>
@@ -2353,16 +2349,16 @@
         <v>71</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -2388,11 +2384,11 @@
         <v>71</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>71</v>
@@ -2410,13 +2406,13 @@
         <v>71</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>71</v>
@@ -2430,7 +2426,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2438,10 +2434,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>71</v>
@@ -2453,16 +2449,16 @@
         <v>71</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -2488,11 +2484,11 @@
         <v>71</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>71</v>
@@ -2510,13 +2506,13 @@
         <v>71</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>71</v>
@@ -2530,7 +2526,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2538,10 +2534,10 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>71</v>
@@ -2553,16 +2549,16 @@
         <v>71</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2588,11 +2584,11 @@
         <v>71</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>71</v>
@@ -2610,13 +2606,13 @@
         <v>71</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>71</v>
@@ -2630,7 +2626,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2641,7 +2637,7 @@
         <v>72</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>71</v>
@@ -2653,16 +2649,16 @@
         <v>71</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -2676,7 +2672,7 @@
         <v>71</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>71</v>
@@ -2712,13 +2708,13 @@
         <v>71</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>71</v>
@@ -2732,7 +2728,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2740,10 +2736,10 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>71</v>
@@ -2755,13 +2751,13 @@
         <v>71</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2776,49 +2772,49 @@
         <v>71</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>142</v>
-      </c>
       <c r="AF20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>71</v>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:36:27+00:00</t>
+    <t>2022-10-08T08:41:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:41:45+00:00</t>
+    <t>2022-10-08T08:44:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:44:11+00:00</t>
+    <t>2022-10-08T08:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-IDMPPhPModel.xlsx
+++ b/branches/master/StructureDefinition-IDMPPhPModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-08T08:47:47+00:00</t>
+    <t>2022-10-08T09:43:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
